--- a/mycraft/config/locale/ko/items.xlsx
+++ b/mycraft/config/locale/ko/items.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{802A5A87-649F-4894-980F-EAAD36678C7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0CA4480-2CB8-4908-9C3E-2EDB9C8D6962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1590" yWindow="270" windowWidth="24945" windowHeight="14445" tabRatio="756" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30735" yWindow="555" windowWidth="23400" windowHeight="14445" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="자원" sheetId="5" r:id="rId1"/>
@@ -23,156 +23,13 @@
     <sheet name="유체관련" sheetId="17" r:id="rId13"/>
     <sheet name="장비" sheetId="18" r:id="rId14"/>
     <sheet name="지형" sheetId="19" r:id="rId15"/>
-    <sheet name="item" sheetId="1" r:id="rId16"/>
-    <sheet name="assembling" sheetId="2" r:id="rId17"/>
-    <sheet name="assembling-output" sheetId="3" r:id="rId18"/>
-    <sheet name="assembling-input" sheetId="4" r:id="rId19"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="498">
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>state</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>power</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>defence</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vitality</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>desc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stackable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>slug</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>conveyor-belt</t>
-  </si>
-  <si>
-    <t>컨베이어 밸트</t>
-  </si>
-  <si>
-    <t>물건이 이동하는 설비</t>
-  </si>
-  <si>
-    <t>basic-transport-belt</t>
-  </si>
-  <si>
-    <t>inserter</t>
-  </si>
-  <si>
-    <t>로봇팔</t>
-  </si>
-  <si>
-    <t>물건이 잡거나 넣는 설비</t>
-  </si>
-  <si>
-    <t>robotic-arm</t>
-  </si>
-  <si>
-    <t>chest</t>
-  </si>
-  <si>
-    <t>나무상자</t>
-  </si>
-  <si>
-    <t>slots</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>물건을 보관하는 설비</t>
-  </si>
-  <si>
-    <t>mining-drill</t>
-  </si>
-  <si>
-    <t>채광 드릴</t>
-  </si>
-  <si>
-    <t>자원을 채광하는 설비</t>
-  </si>
-  <si>
-    <t>drill</t>
-  </si>
-  <si>
-    <t>machine</t>
-  </si>
-  <si>
-    <t>조립 생산 설비</t>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kind</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>inputs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chips</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>itemid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>build-time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>output-id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>input-id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>itemid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>amount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="459">
   <si>
     <t>나무</t>
   </si>
@@ -3677,18 +3534,12 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -3876,117 +3727,113 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4005,59 +3852,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1025" name="AutoShape 1" descr="Factorio-wood">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68363AC6-C0F8-1CE1-55AE-383B8ABEBACD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="238125" y="1676400"/>
-          <a:ext cx="9753600" cy="9753600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4362,123 +4156,123 @@
   <sheetData>
     <row r="1" spans="1:3" ht="17.25" thickBot="1"/>
     <row r="2" spans="1:3" ht="17.25" thickBot="1">
-      <c r="A2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>45</v>
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="17.25" thickBot="1">
-      <c r="A3" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>47</v>
+      <c r="A3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="17.25" thickBot="1">
-      <c r="A4" s="14"/>
-      <c r="B4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>49</v>
+      <c r="A4" s="16"/>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="29.25" thickBot="1">
-      <c r="A5" s="14"/>
-      <c r="B5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>51</v>
+      <c r="A5" s="16"/>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="29.25" thickBot="1">
-      <c r="A6" s="15"/>
-      <c r="B6" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>53</v>
+      <c r="A6" s="17"/>
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="17.25" thickBot="1">
-      <c r="A7" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>55</v>
+      <c r="A7" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="17.25" thickBot="1">
-      <c r="A8" s="14"/>
-      <c r="B8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>56</v>
+      <c r="A8" s="16"/>
+      <c r="B8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="17.25" thickBot="1">
-      <c r="A9" s="15"/>
-      <c r="B9" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>58</v>
+      <c r="A9" s="17"/>
+      <c r="B9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="17.25" thickBot="1">
-      <c r="A10" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>59</v>
+      <c r="A10" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="17.25" thickBot="1">
-      <c r="A11" s="15"/>
-      <c r="B11" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>61</v>
+      <c r="A11" s="17"/>
+      <c r="B11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="17.25" thickBot="1">
-      <c r="A12" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>64</v>
+      <c r="A12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="17.25" thickBot="1">
-      <c r="A13" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>66</v>
+      <c r="A13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -4508,66 +4302,66 @@
   <sheetData>
     <row r="2" spans="2:3">
       <c r="B2" t="s">
-        <v>283</v>
+        <v>244</v>
       </c>
       <c r="C2" t="s">
-        <v>284</v>
+        <v>245</v>
       </c>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" t="s">
-        <v>285</v>
+        <v>246</v>
       </c>
       <c r="C3" t="s">
-        <v>286</v>
+        <v>247</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" t="s">
-        <v>287</v>
+        <v>248</v>
       </c>
       <c r="C4" t="s">
-        <v>288</v>
+        <v>249</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" t="s">
-        <v>289</v>
+        <v>250</v>
       </c>
       <c r="C5" t="s">
-        <v>290</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" t="s">
-        <v>291</v>
+        <v>252</v>
       </c>
       <c r="C6" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" t="s">
-        <v>293</v>
+        <v>254</v>
       </c>
       <c r="C7" t="s">
-        <v>294</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" spans="2:3">
       <c r="B8" t="s">
-        <v>295</v>
+        <v>256</v>
       </c>
       <c r="C8" t="s">
-        <v>296</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9" spans="2:3">
       <c r="B9" t="s">
-        <v>297</v>
+        <v>258</v>
       </c>
       <c r="C9" t="s">
-        <v>298</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -4592,98 +4386,98 @@
   <sheetData>
     <row r="2" spans="2:3">
       <c r="B2" t="s">
-        <v>299</v>
+        <v>260</v>
       </c>
       <c r="C2" t="s">
-        <v>300</v>
+        <v>261</v>
       </c>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" t="s">
-        <v>301</v>
+        <v>262</v>
       </c>
       <c r="C3" t="s">
-        <v>302</v>
+        <v>263</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" t="s">
-        <v>303</v>
+        <v>264</v>
       </c>
       <c r="C4" t="s">
-        <v>304</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" t="s">
-        <v>306</v>
+        <v>267</v>
       </c>
       <c r="C5" t="s">
-        <v>305</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" t="s">
-        <v>307</v>
+        <v>268</v>
       </c>
       <c r="C6" t="s">
-        <v>308</v>
+        <v>269</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" t="s">
-        <v>309</v>
+        <v>270</v>
       </c>
       <c r="C7" t="s">
-        <v>310</v>
+        <v>271</v>
       </c>
     </row>
     <row r="8" spans="2:3">
       <c r="B8" t="s">
-        <v>311</v>
+        <v>272</v>
       </c>
       <c r="C8" t="s">
-        <v>312</v>
+        <v>273</v>
       </c>
     </row>
     <row r="9" spans="2:3">
       <c r="B9" t="s">
-        <v>313</v>
+        <v>274</v>
       </c>
       <c r="C9" t="s">
-        <v>314</v>
+        <v>275</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" t="s">
-        <v>315</v>
+        <v>276</v>
       </c>
       <c r="C10" t="s">
-        <v>316</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11" spans="2:3">
       <c r="B11" t="s">
-        <v>317</v>
+        <v>278</v>
       </c>
       <c r="C11" t="s">
-        <v>318</v>
+        <v>279</v>
       </c>
     </row>
     <row r="12" spans="2:3">
       <c r="B12" t="s">
-        <v>319</v>
+        <v>280</v>
       </c>
       <c r="C12" t="s">
-        <v>320</v>
+        <v>281</v>
       </c>
     </row>
     <row r="13" spans="2:3">
       <c r="B13" t="s">
-        <v>321</v>
+        <v>282</v>
       </c>
       <c r="C13" t="s">
-        <v>322</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -4708,66 +4502,66 @@
   <sheetData>
     <row r="2" spans="2:3">
       <c r="B2" t="s">
-        <v>323</v>
+        <v>284</v>
       </c>
       <c r="C2" t="s">
-        <v>324</v>
+        <v>285</v>
       </c>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" t="s">
-        <v>325</v>
+        <v>286</v>
       </c>
       <c r="C3" t="s">
-        <v>326</v>
+        <v>287</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" t="s">
-        <v>327</v>
+        <v>288</v>
       </c>
       <c r="C4" t="s">
-        <v>328</v>
+        <v>289</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" t="s">
-        <v>329</v>
+        <v>290</v>
       </c>
       <c r="C5" t="s">
-        <v>328</v>
+        <v>289</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" t="s">
-        <v>330</v>
+        <v>291</v>
       </c>
       <c r="C6" t="s">
-        <v>331</v>
+        <v>292</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" t="s">
-        <v>332</v>
+        <v>293</v>
       </c>
       <c r="C7" t="s">
-        <v>333</v>
+        <v>294</v>
       </c>
     </row>
     <row r="8" spans="2:3">
       <c r="B8" t="s">
-        <v>334</v>
+        <v>295</v>
       </c>
       <c r="C8" t="s">
-        <v>335</v>
+        <v>296</v>
       </c>
     </row>
     <row r="9" spans="2:3">
       <c r="B9" t="s">
-        <v>336</v>
+        <v>297</v>
       </c>
       <c r="C9" t="s">
-        <v>337</v>
+        <v>298</v>
       </c>
     </row>
   </sheetData>
@@ -4792,66 +4586,66 @@
   <sheetData>
     <row r="2" spans="2:3">
       <c r="B2" t="s">
-        <v>338</v>
+        <v>299</v>
       </c>
       <c r="C2" t="s">
-        <v>339</v>
+        <v>300</v>
       </c>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" t="s">
-        <v>340</v>
+        <v>301</v>
       </c>
       <c r="C3" t="s">
-        <v>341</v>
+        <v>302</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" t="s">
-        <v>342</v>
+        <v>303</v>
       </c>
       <c r="C4" t="s">
-        <v>343</v>
+        <v>304</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" t="s">
-        <v>344</v>
+        <v>305</v>
       </c>
       <c r="C5" t="s">
-        <v>345</v>
+        <v>306</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" t="s">
-        <v>346</v>
+        <v>307</v>
       </c>
       <c r="C6" t="s">
-        <v>347</v>
+        <v>308</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" t="s">
-        <v>348</v>
+        <v>309</v>
       </c>
       <c r="C7" t="s">
-        <v>349</v>
+        <v>310</v>
       </c>
     </row>
     <row r="8" spans="2:3">
       <c r="B8" t="s">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="C8" t="s">
-        <v>350</v>
+        <v>311</v>
       </c>
     </row>
     <row r="9" spans="2:3">
       <c r="B9" t="s">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="C9" t="s">
-        <v>351</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -4876,409 +4670,409 @@
   <sheetData>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>352</v>
+        <v>313</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="B3" t="s">
-        <v>353</v>
+        <v>314</v>
       </c>
       <c r="C3" t="s">
-        <v>354</v>
+        <v>315</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="B4" t="s">
-        <v>355</v>
+        <v>316</v>
       </c>
       <c r="C4" t="s">
-        <v>356</v>
+        <v>317</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="B5" t="s">
-        <v>357</v>
+        <v>318</v>
       </c>
       <c r="C5" t="s">
-        <v>358</v>
+        <v>319</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="B6" t="s">
-        <v>359</v>
+        <v>320</v>
       </c>
       <c r="C6" t="s">
-        <v>362</v>
+        <v>323</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="B7" t="s">
-        <v>360</v>
+        <v>321</v>
       </c>
       <c r="C7" t="s">
-        <v>361</v>
+        <v>322</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="B8" t="s">
-        <v>363</v>
+        <v>324</v>
       </c>
       <c r="C8" t="s">
-        <v>364</v>
+        <v>325</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="B9" t="s">
-        <v>365</v>
+        <v>326</v>
       </c>
       <c r="C9" t="s">
-        <v>366</v>
+        <v>327</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>367</v>
+        <v>328</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="B11" t="s">
-        <v>368</v>
+        <v>329</v>
       </c>
       <c r="C11" t="s">
-        <v>369</v>
+        <v>330</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="B12" t="s">
-        <v>370</v>
+        <v>331</v>
       </c>
       <c r="C12" t="s">
-        <v>371</v>
+        <v>332</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="B13" t="s">
-        <v>372</v>
+        <v>333</v>
       </c>
       <c r="C13" t="s">
-        <v>373</v>
+        <v>334</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="B14" t="s">
-        <v>374</v>
+        <v>335</v>
       </c>
       <c r="C14" t="s">
-        <v>376</v>
+        <v>337</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="B15" t="s">
-        <v>375</v>
+        <v>336</v>
       </c>
       <c r="C15" t="s">
-        <v>377</v>
+        <v>338</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>378</v>
+        <v>339</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="B17" t="s">
-        <v>379</v>
+        <v>340</v>
       </c>
       <c r="C17" t="s">
-        <v>380</v>
+        <v>341</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="B18" t="s">
-        <v>381</v>
+        <v>342</v>
       </c>
       <c r="C18" t="s">
-        <v>382</v>
+        <v>343</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="B19" t="s">
-        <v>383</v>
+        <v>344</v>
       </c>
       <c r="C19" t="s">
-        <v>384</v>
+        <v>345</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="B20" t="s">
-        <v>385</v>
+        <v>346</v>
       </c>
       <c r="C20" t="s">
-        <v>386</v>
+        <v>347</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="B21" t="s">
-        <v>387</v>
+        <v>348</v>
       </c>
       <c r="C21" t="s">
-        <v>388</v>
+        <v>349</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="B22" t="s">
-        <v>389</v>
+        <v>350</v>
       </c>
       <c r="C22" t="s">
-        <v>390</v>
+        <v>351</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="B23" t="s">
-        <v>363</v>
+        <v>324</v>
       </c>
       <c r="C23" t="s">
-        <v>391</v>
+        <v>352</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="B24" t="s">
-        <v>392</v>
+        <v>353</v>
       </c>
       <c r="C24" t="s">
-        <v>393</v>
+        <v>354</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="B25" t="s">
-        <v>394</v>
+        <v>355</v>
       </c>
       <c r="C25" t="s">
-        <v>395</v>
+        <v>356</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="B26" t="s">
-        <v>396</v>
+        <v>357</v>
       </c>
       <c r="C26" t="s">
-        <v>397</v>
+        <v>358</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="B27" t="s">
-        <v>398</v>
+        <v>359</v>
       </c>
       <c r="C27" t="s">
-        <v>399</v>
+        <v>360</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="B28" t="s">
-        <v>400</v>
+        <v>361</v>
       </c>
       <c r="C28" t="s">
-        <v>401</v>
+        <v>362</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="B29" t="s">
-        <v>402</v>
+        <v>363</v>
       </c>
       <c r="C29" t="s">
-        <v>403</v>
+        <v>364</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="B30" t="s">
-        <v>404</v>
+        <v>365</v>
       </c>
       <c r="C30" t="s">
-        <v>405</v>
+        <v>366</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>406</v>
+        <v>367</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="B32" t="s">
-        <v>407</v>
+        <v>368</v>
       </c>
       <c r="C32" t="s">
-        <v>408</v>
+        <v>369</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="B33" t="s">
-        <v>409</v>
+        <v>370</v>
       </c>
       <c r="C33" t="s">
-        <v>410</v>
+        <v>371</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="B34" t="s">
-        <v>411</v>
+        <v>372</v>
       </c>
       <c r="C34" t="s">
-        <v>412</v>
+        <v>373</v>
       </c>
       <c r="D34" t="s">
-        <v>415</v>
+        <v>376</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="B35" t="s">
-        <v>413</v>
+        <v>374</v>
       </c>
       <c r="C35" t="s">
-        <v>414</v>
+        <v>375</v>
       </c>
       <c r="D35" t="s">
-        <v>416</v>
+        <v>377</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="B36" t="s">
-        <v>417</v>
+        <v>378</v>
       </c>
       <c r="C36" t="s">
-        <v>408</v>
+        <v>369</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="B37" t="s">
-        <v>418</v>
+        <v>379</v>
       </c>
       <c r="C37" t="s">
-        <v>419</v>
+        <v>380</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="B38" t="s">
-        <v>420</v>
+        <v>381</v>
       </c>
       <c r="C38" t="s">
-        <v>408</v>
+        <v>369</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="B39" t="s">
-        <v>421</v>
+        <v>382</v>
       </c>
       <c r="C39" t="s">
-        <v>422</v>
+        <v>383</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="B40" t="s">
-        <v>423</v>
+        <v>384</v>
       </c>
       <c r="C40" t="s">
-        <v>424</v>
+        <v>385</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="B41" t="s">
-        <v>425</v>
+        <v>386</v>
       </c>
       <c r="C41" t="s">
-        <v>426</v>
+        <v>387</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="B42" t="s">
-        <v>427</v>
+        <v>388</v>
       </c>
       <c r="C42" t="s">
-        <v>428</v>
+        <v>389</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="B43" t="s">
-        <v>429</v>
+        <v>390</v>
       </c>
       <c r="C43" t="s">
-        <v>430</v>
+        <v>391</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="B44" t="s">
-        <v>431</v>
+        <v>392</v>
       </c>
       <c r="C44" t="s">
-        <v>432</v>
+        <v>393</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="B45" t="s">
-        <v>433</v>
+        <v>394</v>
       </c>
       <c r="C45" t="s">
-        <v>434</v>
+        <v>395</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>435</v>
+        <v>396</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="B47" t="s">
-        <v>436</v>
+        <v>397</v>
       </c>
       <c r="C47" t="s">
-        <v>437</v>
+        <v>398</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="B48" t="s">
-        <v>438</v>
+        <v>399</v>
       </c>
       <c r="C48" t="s">
-        <v>439</v>
+        <v>400</v>
       </c>
     </row>
     <row r="49" spans="2:3">
       <c r="B49" t="s">
-        <v>440</v>
+        <v>401</v>
       </c>
       <c r="C49" t="s">
-        <v>441</v>
+        <v>402</v>
       </c>
     </row>
     <row r="50" spans="2:3">
       <c r="B50" t="s">
-        <v>442</v>
+        <v>403</v>
       </c>
       <c r="C50" t="s">
-        <v>443</v>
+        <v>404</v>
       </c>
     </row>
     <row r="51" spans="2:3">
       <c r="B51" t="s">
-        <v>444</v>
+        <v>405</v>
       </c>
       <c r="C51" t="s">
-        <v>445</v>
+        <v>406</v>
       </c>
     </row>
     <row r="52" spans="2:3">
       <c r="B52" t="s">
-        <v>446</v>
+        <v>407</v>
       </c>
       <c r="C52" t="s">
-        <v>447</v>
+        <v>408</v>
       </c>
     </row>
     <row r="53" spans="2:3">
       <c r="B53" t="s">
-        <v>448</v>
+        <v>409</v>
       </c>
       <c r="C53" t="s">
-        <v>449</v>
+        <v>410</v>
       </c>
     </row>
   </sheetData>
@@ -5303,501 +5097,212 @@
   <sheetData>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>450</v>
+        <v>411</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="B3" t="s">
-        <v>451</v>
+        <v>412</v>
       </c>
       <c r="C3" t="s">
-        <v>452</v>
+        <v>413</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="B4" t="s">
-        <v>453</v>
+        <v>414</v>
       </c>
       <c r="C4" t="s">
-        <v>454</v>
+        <v>415</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="B5" t="s">
-        <v>455</v>
+        <v>416</v>
       </c>
       <c r="C5" t="s">
-        <v>456</v>
+        <v>417</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="B6" t="s">
-        <v>457</v>
+        <v>418</v>
       </c>
       <c r="C6" t="s">
-        <v>458</v>
+        <v>419</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="B7" t="s">
-        <v>459</v>
+        <v>420</v>
       </c>
       <c r="C7" t="s">
-        <v>460</v>
+        <v>421</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="B8" t="s">
-        <v>461</v>
+        <v>422</v>
       </c>
       <c r="C8" t="s">
-        <v>462</v>
+        <v>423</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>463</v>
+        <v>424</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="B10" t="s">
-        <v>464</v>
+        <v>425</v>
       </c>
       <c r="C10" t="s">
-        <v>465</v>
+        <v>426</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="B11" t="s">
-        <v>466</v>
+        <v>427</v>
       </c>
       <c r="C11" t="s">
-        <v>467</v>
+        <v>428</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="B12" t="s">
-        <v>468</v>
+        <v>429</v>
       </c>
       <c r="C12" t="s">
-        <v>469</v>
+        <v>430</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>470</v>
+        <v>431</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="B14" t="s">
-        <v>471</v>
+        <v>432</v>
       </c>
       <c r="C14" t="s">
-        <v>472</v>
+        <v>433</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="B15" t="s">
-        <v>473</v>
+        <v>434</v>
       </c>
       <c r="C15" t="s">
-        <v>474</v>
+        <v>435</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="B16" t="s">
-        <v>475</v>
+        <v>436</v>
       </c>
       <c r="C16" t="s">
-        <v>476</v>
+        <v>437</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="B17" t="s">
-        <v>477</v>
+        <v>438</v>
       </c>
       <c r="C17" t="s">
-        <v>478</v>
+        <v>439</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>479</v>
+        <v>440</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="B19" t="s">
-        <v>480</v>
+        <v>441</v>
       </c>
       <c r="C19" t="s">
-        <v>481</v>
+        <v>442</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="B20" t="s">
-        <v>482</v>
+        <v>443</v>
       </c>
       <c r="C20" t="s">
-        <v>483</v>
+        <v>444</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="B21" t="s">
-        <v>194</v>
+        <v>155</v>
       </c>
       <c r="C21" t="s">
-        <v>484</v>
+        <v>445</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="B22" t="s">
-        <v>485</v>
+        <v>446</v>
       </c>
       <c r="C22" t="s">
-        <v>486</v>
+        <v>447</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="B23" t="s">
-        <v>487</v>
+        <v>448</v>
       </c>
       <c r="C23" t="s">
-        <v>488</v>
+        <v>449</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="B24" t="s">
-        <v>489</v>
+        <v>450</v>
       </c>
       <c r="C24" t="s">
-        <v>490</v>
+        <v>451</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>491</v>
+        <v>452</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="B26" t="s">
-        <v>491</v>
+        <v>452</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="B27" t="s">
-        <v>492</v>
+        <v>453</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="B28" t="s">
-        <v>493</v>
+        <v>454</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="B29" t="s">
-        <v>494</v>
+        <v>455</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="B31" t="s">
-        <v>495</v>
+        <v>456</v>
       </c>
       <c r="C31" t="s">
-        <v>496</v>
+        <v>457</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="3.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12">
-      <c r="G1" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>2</v>
-      </c>
-      <c r="I3">
-        <v>10</v>
-      </c>
-      <c r="J3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3">
-        <v>100</v>
-      </c>
-      <c r="L3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="1">
-        <v>11</v>
-      </c>
-      <c r="J5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J6" t="s">
-        <v>24</v>
-      </c>
-      <c r="L6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="G1:I1"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:D3"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>2002</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5805,7 +5310,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2586E909-C558-48C2-AF8A-07829026692A}">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
@@ -5820,335 +5325,335 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17.25" thickBot="1"/>
     <row r="2" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="20"/>
+    </row>
+    <row r="3" spans="1:11" ht="17.25" thickBot="1">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E3" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="23"/>
+    </row>
+    <row r="4" spans="1:11" ht="17.25" thickBot="1">
+      <c r="A4" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="18"/>
-    </row>
-    <row r="3" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A3" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="21"/>
-    </row>
-    <row r="4" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A4" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>73</v>
+      <c r="C4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A5" s="14"/>
-      <c r="B5" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="F5" s="22"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="24"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
     </row>
     <row r="6" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A6" s="14"/>
-      <c r="B6" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E6" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="F6" s="24"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="26"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
     </row>
     <row r="7" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A7" s="15"/>
-      <c r="B7" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E7" s="29"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="31"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
     </row>
     <row r="8" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A8" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E8" s="30"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
+      <c r="A8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="32"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
     </row>
     <row r="9" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A9" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>95</v>
+      <c r="A9" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A10" s="14"/>
-      <c r="B10" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="I10" s="31"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="33"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" s="33"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="35"/>
     </row>
     <row r="11" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A11" s="15"/>
-      <c r="B11" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E11" s="15"/>
-      <c r="F11" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="K11" s="3" t="s">
+      <c r="A11" s="17"/>
+      <c r="B11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>60</v>
       </c>
+      <c r="E11" s="17"/>
+      <c r="F11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="12" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A12" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>60</v>
+      <c r="A12" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A13" s="15"/>
-      <c r="B13" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C13" s="3" t="s">
+      <c r="A13" s="17"/>
+      <c r="B13" s="1" t="s">
         <v>61</v>
       </c>
+      <c r="C13" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="14" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A14" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>102</v>
+      <c r="A14" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A15" s="14"/>
-      <c r="B15" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>104</v>
+      <c r="A15" s="16"/>
+      <c r="B15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="17.25" thickBot="1">
-      <c r="A16" s="15"/>
-      <c r="B16" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>66</v>
+      <c r="A16" s="17"/>
+      <c r="B16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>108</v>
+        <v>69</v>
       </c>
       <c r="B18" t="s">
-        <v>109</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="B19" t="s">
-        <v>107</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>110</v>
+        <v>71</v>
       </c>
       <c r="B20" t="s">
-        <v>111</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>112</v>
+        <v>73</v>
       </c>
       <c r="B21" t="s">
-        <v>113</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="B22" t="s">
-        <v>115</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>116</v>
+        <v>77</v>
       </c>
       <c r="B23" t="s">
-        <v>117</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>118</v>
+        <v>79</v>
       </c>
       <c r="B24" t="s">
-        <v>117</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="B25" t="s">
-        <v>120</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>121</v>
+        <v>82</v>
       </c>
       <c r="B26" t="s">
-        <v>120</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -6192,442 +5697,442 @@
   <sheetData>
     <row r="1" spans="1:3" ht="17.25" thickBot="1"/>
     <row r="2" spans="1:3" ht="17.25" thickBot="1">
-      <c r="A2" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>45</v>
+      <c r="A2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="17.25" thickBot="1">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="17.25" thickBot="1">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="17.25" thickBot="1">
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="17.25" thickBot="1">
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="17.25" thickBot="1">
+      <c r="A7" s="16"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="17.25" thickBot="1">
+      <c r="A8" s="16"/>
+      <c r="B8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="17.25" thickBot="1">
+      <c r="A9" s="16"/>
+      <c r="B9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="17.25" thickBot="1">
+      <c r="A10" s="17"/>
+      <c r="B10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="17.25" thickBot="1">
+      <c r="A11" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="17.25" thickBot="1">
+      <c r="A12" s="17"/>
+      <c r="B12" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="17.25" thickBot="1">
+      <c r="A13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="17.25" thickBot="1">
+      <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="17.25" thickBot="1">
+      <c r="A15" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="17.25" thickBot="1">
+      <c r="A16" s="17"/>
+      <c r="B16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="17.25" thickBot="1">
+      <c r="A17" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="17.25" thickBot="1">
+      <c r="A18" s="16"/>
+      <c r="B18" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="17.25" thickBot="1">
+      <c r="A19" s="16"/>
+      <c r="B19" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="17.25" thickBot="1">
+      <c r="A20" s="17"/>
+      <c r="B20" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="17.25" thickBot="1">
+      <c r="A21" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="17.25" thickBot="1">
+      <c r="A22" s="17"/>
+      <c r="B22" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="17.25" thickBot="1">
+      <c r="A23" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="13" t="s">
+    </row>
+    <row r="24" spans="1:3" ht="17.25" thickBot="1">
+      <c r="A24" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="17.25" thickBot="1">
+      <c r="A25" s="17"/>
+      <c r="B25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="17.25" thickBot="1">
+      <c r="A26" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="17.25" thickBot="1">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="17.25" thickBot="1">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="17.25" thickBot="1">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="17.25" thickBot="1">
-      <c r="A7" s="14"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="17.25" thickBot="1">
-      <c r="A8" s="14"/>
-      <c r="B8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="17.25" thickBot="1">
-      <c r="A9" s="14"/>
-      <c r="B9" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="17.25" thickBot="1">
-      <c r="A10" s="15"/>
-      <c r="B10" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="17.25" thickBot="1">
-      <c r="A11" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="17.25" thickBot="1">
-      <c r="A12" s="15"/>
-      <c r="B12" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="17.25" thickBot="1">
-      <c r="A13" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="17.25" thickBot="1">
-      <c r="A14" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="17.25" thickBot="1">
-      <c r="A15" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="17.25" thickBot="1">
-      <c r="A16" s="15"/>
-      <c r="B16" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="17.25" thickBot="1">
-      <c r="A17" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="17.25" thickBot="1">
-      <c r="A18" s="14"/>
-      <c r="B18" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="17.25" thickBot="1">
-      <c r="A19" s="14"/>
-      <c r="B19" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="17.25" thickBot="1">
-      <c r="A20" s="15"/>
-      <c r="B20" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="17.25" thickBot="1">
-      <c r="A21" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="17.25" thickBot="1">
-      <c r="A22" s="15"/>
-      <c r="B22" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="17.25" thickBot="1">
-      <c r="A23" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="17.25" thickBot="1">
-      <c r="A24" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="17.25" thickBot="1">
-      <c r="A25" s="15"/>
-      <c r="B25" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="17.25" thickBot="1">
-      <c r="A26" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>105</v>
-      </c>
-      <c r="B28" s="39" t="s">
-        <v>147</v>
+        <v>66</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>148</v>
-      </c>
-      <c r="B29" s="39" t="s">
-        <v>149</v>
+        <v>109</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>150</v>
-      </c>
-      <c r="B30" s="39" t="s">
-        <v>151</v>
+        <v>111</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>152</v>
-      </c>
-      <c r="B31" s="39" t="s">
-        <v>153</v>
+        <v>113</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>154</v>
-      </c>
-      <c r="B32" s="39" t="s">
-        <v>155</v>
+        <v>115</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>156</v>
-      </c>
-      <c r="B33" s="39" t="s">
-        <v>157</v>
+        <v>117</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>158</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>159</v>
+        <v>119</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>160</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>161</v>
+        <v>121</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>162</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>163</v>
+        <v>123</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>164</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>165</v>
+        <v>125</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>166</v>
-      </c>
-      <c r="B38" s="11" t="s">
-        <v>167</v>
+        <v>127</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>194</v>
-      </c>
-      <c r="B39" s="37" t="s">
-        <v>497</v>
+        <v>155</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>168</v>
-      </c>
-      <c r="B40" s="11" t="s">
-        <v>169</v>
+        <v>129</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>170</v>
-      </c>
-      <c r="B41" s="11" t="s">
-        <v>171</v>
+        <v>131</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>172</v>
-      </c>
-      <c r="B42" s="39" t="s">
-        <v>173</v>
+        <v>133</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>174</v>
-      </c>
-      <c r="B43" s="11" t="s">
-        <v>175</v>
+        <v>135</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>176</v>
-      </c>
-      <c r="B44" s="11" t="s">
-        <v>177</v>
+        <v>137</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>178</v>
-      </c>
-      <c r="B45" s="11" t="s">
-        <v>179</v>
+        <v>139</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>180</v>
-      </c>
-      <c r="B46" s="11" t="s">
-        <v>181</v>
+        <v>141</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>182</v>
-      </c>
-      <c r="B47" s="11" t="s">
-        <v>183</v>
+        <v>143</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>185</v>
-      </c>
-      <c r="B48" s="11" t="s">
-        <v>184</v>
+        <v>146</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="45">
       <c r="A49" t="s">
-        <v>186</v>
-      </c>
-      <c r="B49" s="11" t="s">
-        <v>187</v>
+        <v>147</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>188</v>
-      </c>
-      <c r="B50" s="11" t="s">
-        <v>189</v>
+        <v>149</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>190</v>
-      </c>
-      <c r="B51" s="11" t="s">
-        <v>191</v>
+        <v>151</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>192</v>
-      </c>
-      <c r="B52" s="11" t="s">
-        <v>193</v>
+        <v>153</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -6661,55 +6166,55 @@
   <sheetData>
     <row r="2" spans="2:3">
       <c r="B2" t="s">
-        <v>195</v>
+        <v>156</v>
       </c>
       <c r="C2" t="s">
-        <v>196</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" t="s">
-        <v>197</v>
+        <v>158</v>
       </c>
       <c r="C3" t="s">
-        <v>198</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" t="s">
-        <v>199</v>
+        <v>160</v>
       </c>
       <c r="C4" t="s">
-        <v>200</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" t="s">
-        <v>201</v>
+        <v>162</v>
       </c>
       <c r="C5" t="s">
-        <v>202</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" t="s">
-        <v>203</v>
+        <v>164</v>
       </c>
       <c r="C6" t="s">
-        <v>204</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" t="s">
-        <v>205</v>
+        <v>166</v>
       </c>
       <c r="C7" t="s">
-        <v>206</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="2:3">
       <c r="B8" t="s">
-        <v>207</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -6734,79 +6239,79 @@
   <sheetData>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>208</v>
+        <v>169</v>
       </c>
       <c r="B2" t="s">
-        <v>209</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>222</v>
+        <v>170</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>210</v>
+        <v>171</v>
       </c>
       <c r="B3" t="s">
-        <v>211</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>223</v>
+        <v>172</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>212</v>
+        <v>173</v>
       </c>
       <c r="B4" t="s">
-        <v>213</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>224</v>
+        <v>174</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>214</v>
+        <v>175</v>
       </c>
       <c r="B5" t="s">
-        <v>215</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>225</v>
+        <v>176</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>216</v>
+        <v>177</v>
       </c>
       <c r="B6" t="s">
-        <v>217</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>226</v>
+        <v>178</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>218</v>
+        <v>179</v>
       </c>
       <c r="B7" t="s">
-        <v>219</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>227</v>
+        <v>180</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>220</v>
+        <v>181</v>
       </c>
       <c r="B8" t="s">
-        <v>221</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>227</v>
+        <v>182</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -6819,7 +6324,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2093A881-123F-4278-AC61-48931E9125AD}">
   <dimension ref="B2:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -6831,74 +6336,74 @@
   <sheetData>
     <row r="2" spans="2:3">
       <c r="B2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C2" s="38" t="s">
-        <v>229</v>
+        <v>189</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" t="s">
-        <v>230</v>
+        <v>191</v>
       </c>
       <c r="C3" t="s">
-        <v>231</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" t="s">
-        <v>232</v>
+        <v>193</v>
       </c>
       <c r="C4" t="s">
-        <v>233</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" t="s">
-        <v>234</v>
+        <v>195</v>
       </c>
       <c r="C5" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C6" t="s">
-        <v>237</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="C7" t="s">
-        <v>239</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="2:3">
       <c r="B8" t="s">
-        <v>240</v>
+        <v>201</v>
       </c>
       <c r="C8" t="s">
-        <v>241</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="2:3">
       <c r="B9" t="s">
-        <v>242</v>
+        <v>203</v>
       </c>
       <c r="C9" t="s">
-        <v>243</v>
+        <v>204</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" t="s">
-        <v>244</v>
+        <v>205</v>
       </c>
       <c r="C10" t="s">
-        <v>245</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -6923,69 +6428,69 @@
   <sheetData>
     <row r="2" spans="2:4">
       <c r="B2" t="s">
-        <v>246</v>
+        <v>207</v>
       </c>
       <c r="C2" t="s">
-        <v>247</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3" spans="2:4">
       <c r="B3" t="s">
-        <v>248</v>
+        <v>209</v>
       </c>
       <c r="C3" t="s">
-        <v>249</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="2:4">
       <c r="B4" t="s">
-        <v>250</v>
+        <v>211</v>
       </c>
       <c r="C4" t="s">
-        <v>251</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" t="s">
-        <v>252</v>
+        <v>213</v>
       </c>
       <c r="C5" t="s">
-        <v>253</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>258</v>
+        <v>214</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="6" spans="2:4">
       <c r="B6" t="s">
-        <v>254</v>
+        <v>215</v>
       </c>
       <c r="C6" t="s">
-        <v>253</v>
+        <v>214</v>
       </c>
     </row>
     <row r="7" spans="2:4">
       <c r="B7" t="s">
-        <v>255</v>
+        <v>216</v>
       </c>
       <c r="C7" t="s">
-        <v>253</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" t="s">
-        <v>256</v>
+        <v>217</v>
       </c>
       <c r="C8" t="s">
-        <v>253</v>
+        <v>214</v>
       </c>
     </row>
     <row r="9" spans="2:4">
       <c r="B9" t="s">
-        <v>257</v>
+        <v>218</v>
       </c>
       <c r="C9" t="s">
-        <v>253</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -7010,42 +6515,42 @@
   <sheetData>
     <row r="2" spans="2:3">
       <c r="B2" t="s">
-        <v>259</v>
+        <v>220</v>
       </c>
       <c r="C2" t="s">
-        <v>260</v>
+        <v>221</v>
       </c>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" t="s">
-        <v>261</v>
+        <v>222</v>
       </c>
       <c r="C3" t="s">
-        <v>262</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" t="s">
-        <v>263</v>
+        <v>224</v>
       </c>
       <c r="C4" t="s">
-        <v>264</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" t="s">
-        <v>265</v>
+        <v>226</v>
       </c>
       <c r="C6" t="s">
-        <v>266</v>
+        <v>227</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" t="s">
-        <v>267</v>
+        <v>228</v>
       </c>
       <c r="C7" t="s">
-        <v>268</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -7070,58 +6575,58 @@
   <sheetData>
     <row r="2" spans="2:3">
       <c r="B2" t="s">
-        <v>269</v>
+        <v>230</v>
       </c>
       <c r="C2" t="s">
-        <v>270</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
       <c r="C3" t="s">
-        <v>272</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" t="s">
-        <v>273</v>
+        <v>234</v>
       </c>
       <c r="C4" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" t="s">
-        <v>275</v>
+        <v>236</v>
       </c>
       <c r="C5" t="s">
-        <v>276</v>
+        <v>237</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" t="s">
-        <v>277</v>
+        <v>238</v>
       </c>
       <c r="C7" t="s">
-        <v>278</v>
+        <v>239</v>
       </c>
     </row>
     <row r="8" spans="2:3">
       <c r="B8" t="s">
-        <v>279</v>
+        <v>240</v>
       </c>
       <c r="C8" t="s">
-        <v>280</v>
+        <v>241</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" t="s">
-        <v>281</v>
+        <v>242</v>
       </c>
       <c r="C10" t="s">
-        <v>282</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
